--- a/Plantilla visión.xlsx
+++ b/Plantilla visión.xlsx
@@ -221,13 +221,7 @@
     <t xml:space="preserve">Aplicativo web </t>
   </si>
   <si>
-    <t xml:space="preserve">realizar reservas de los centros de informatica y laboratorios </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Roomzilla, Skkeda</t>
-  </si>
-  <si>
-    <t>Permite realizar reservas en las salas(centros de informatica y laboratorios) de manera de manera inmediata, sin la necesidad de hacerlo de manera presencial, estando sujeto a los horarios de funcionamiento de la coordinacion de los mismos</t>
   </si>
   <si>
     <t>Roomux</t>
@@ -235,6 +229,12 @@
   <si>
     <t xml:space="preserve">estará construido en pro de beneficiar el control y el monitoreo de los centros de informática y laboratorios de la universidad católica de oriente
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">desean realizar reservas de los centros de informatica y laboratorios </t>
+  </si>
+  <si>
+    <t>Permite realizar reservas en las salas(centros de informatica y laboratorios) de manera de inmediata, sin la necesidad de hacerlo de manera presencial, estando sujeto a los horarios de funcionamiento de la coordinacion de los mismos</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
     <row r="9" spans="1:2" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="str">
         <f>"Para "&amp;B1&amp;" que "&amp;B2&amp;", "&amp;B3&amp;" es un "&amp;B4&amp;" que "&amp;B5&amp;". A diferencia de "&amp;B6&amp;", nuestro producto "&amp;B7&amp;"."</f>
-        <v>Para Docentes en general, personal administrativo y de educacion permanente de la universidad catolica de oriente  que realizar reservas de los centros de informatica y laboratorios , Roomux es un Aplicativo web  que Permite realizar reservas en las salas(centros de informatica y laboratorios) de manera de manera inmediata, sin la necesidad de hacerlo de manera presencial, estando sujeto a los horarios de funcionamiento de la coordinacion de los mismos. A diferencia de  Roomzilla, Skkeda, nuestro producto estará construido en pro de beneficiar el control y el monitoreo de los centros de informática y laboratorios de la universidad católica de oriente
+        <v>Para Docentes en general, personal administrativo y de educacion permanente de la universidad catolica de oriente  que desean realizar reservas de los centros de informatica y laboratorios , Roomux es un Aplicativo web  que Permite realizar reservas en las salas(centros de informatica y laboratorios) de manera de inmediata, sin la necesidad de hacerlo de manera presencial, estando sujeto a los horarios de funcionamiento de la coordinacion de los mismos. A diferencia de  Roomzilla, Skkeda, nuestro producto estará construido en pro de beneficiar el control y el monitoreo de los centros de informática y laboratorios de la universidad católica de oriente
 .</v>
       </c>
       <c r="B9" s="9"/>
@@ -854,6 +854,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004C046F928740B745A69C794BD66739B9" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0e1df219aa2d4657b5b7960c61f1f212">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ab4b43e-e356-4d99-9aef-7eb0db052703" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a7098fd0e69fce72ac34f8fcc22d2a6c" ns2:_="">
     <xsd:import namespace="3ab4b43e-e356-4d99-9aef-7eb0db052703"/>
@@ -991,12 +997,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1007,6 +1007,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{005658B2-A998-45D3-8CAD-6E5BF449F12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE6CB553-5462-4AC3-B08F-DF93EFA13B1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1024,15 +1033,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{005658B2-A998-45D3-8CAD-6E5BF449F12C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C6DABA-AD51-4941-9C46-F8EDBE087305}">
   <ds:schemaRefs>
